--- a/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Unit Nusantara Barat.xlsx
+++ b/Work/MS BRIBox/PM/2/KC Payakumbuh/FORM PM Unit Nusantara Barat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jamil\Work\MS BRIBox\PM\2\KC Payakumbuh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3C50C6-A3CA-4F73-BE67-F9B7FFAC58FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470A094A-D0ED-4D12-893B-866EB83AAD3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Form PM (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$82</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Form PM'!$A$1:$V$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1435,6 +1435,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1462,9 +1465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1686,8 +1686,8 @@
   </sheetPr>
   <dimension ref="A1:Z1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q77" sqref="Q77"/>
+    <sheetView tabSelected="1" topLeftCell="G63" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X85" sqref="X85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1719,28 +1719,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="93"/>
     </row>
     <row r="2" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
@@ -1854,10 +1854,10 @@
       <c r="T7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="93" t="s">
+      <c r="U7" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="94"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
@@ -3193,7 +3193,9 @@
       </c>
     </row>
     <row r="33" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
+      <c r="A33" s="55">
+        <v>25</v>
+      </c>
       <c r="B33" s="58" t="s">
         <v>250</v>
       </c>
@@ -3226,7 +3228,7 @@
       <c r="Q33" s="55"/>
       <c r="R33" s="56"/>
       <c r="S33" s="62"/>
-      <c r="T33" s="99" t="s">
+      <c r="T33" s="87" t="s">
         <v>65</v>
       </c>
       <c r="U33" s="56" t="s">
@@ -3237,7 +3239,7 @@
     </row>
     <row r="34" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="55">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B34" s="56" t="s">
         <v>165</v>
@@ -3286,7 +3288,7 @@
     </row>
     <row r="35" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="55">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B35" s="56" t="s">
         <v>169</v>
@@ -3331,7 +3333,7 @@
     </row>
     <row r="36" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="55">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B36" s="56" t="s">
         <v>170</v>
@@ -3376,7 +3378,7 @@
     </row>
     <row r="37" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="55">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B37" s="56" t="s">
         <v>171</v>
@@ -3423,7 +3425,7 @@
     </row>
     <row r="38" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="55">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B38" s="56" t="s">
         <v>180</v>
@@ -3470,7 +3472,7 @@
     </row>
     <row r="39" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="55">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B39" s="56" t="s">
         <v>181</v>
@@ -3517,7 +3519,7 @@
     </row>
     <row r="40" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="55">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B40" s="56" t="s">
         <v>182</v>
@@ -3563,7 +3565,7 @@
     </row>
     <row r="41" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="55">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B41" s="56" t="s">
         <v>183</v>
@@ -3609,7 +3611,7 @@
     </row>
     <row r="42" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="55">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B42" s="56" t="s">
         <v>184</v>
@@ -3655,7 +3657,7 @@
     </row>
     <row r="43" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="55">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B43" s="56" t="s">
         <v>185</v>
@@ -3701,7 +3703,7 @@
     </row>
     <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="55">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B44" s="56" t="s">
         <v>186</v>
@@ -3747,7 +3749,7 @@
     </row>
     <row r="45" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="55">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B45" s="56" t="s">
         <v>187</v>
@@ -3793,7 +3795,7 @@
     </row>
     <row r="46" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="55">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B46" s="56" t="s">
         <v>188</v>
@@ -3839,7 +3841,7 @@
     </row>
     <row r="47" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="55">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B47" s="56" t="s">
         <v>189</v>
@@ -3885,7 +3887,7 @@
     </row>
     <row r="48" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="55">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B48" s="56" t="s">
         <v>190</v>
@@ -3931,7 +3933,7 @@
     </row>
     <row r="49" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="55">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B49" s="56" t="s">
         <v>191</v>
@@ -3977,7 +3979,7 @@
     </row>
     <row r="50" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="55">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B50" s="56" t="s">
         <v>192</v>
@@ -4023,7 +4025,7 @@
     </row>
     <row r="51" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="55">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B51" s="56" t="s">
         <v>193</v>
@@ -4069,7 +4071,7 @@
     </row>
     <row r="52" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="55">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B52" s="56" t="s">
         <v>194</v>
@@ -4115,7 +4117,7 @@
     </row>
     <row r="53" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="55">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B53" s="56" t="s">
         <v>195</v>
@@ -4161,7 +4163,7 @@
     </row>
     <row r="54" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="55">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B54" s="56" t="s">
         <v>196</v>
@@ -4207,7 +4209,7 @@
     </row>
     <row r="55" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="55">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B55" s="56" t="s">
         <v>197</v>
@@ -4253,7 +4255,7 @@
     </row>
     <row r="56" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="55">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B56" s="56" t="s">
         <v>198</v>
@@ -4299,7 +4301,7 @@
     </row>
     <row r="57" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="55">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B57" s="56" t="s">
         <v>199</v>
@@ -4345,7 +4347,7 @@
     </row>
     <row r="58" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="55">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B58" s="56" t="s">
         <v>200</v>
@@ -4391,7 +4393,7 @@
     </row>
     <row r="59" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="55">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B59" s="56" t="s">
         <v>201</v>
@@ -4437,7 +4439,7 @@
     </row>
     <row r="60" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="55">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" s="56" t="s">
         <v>202</v>
@@ -4483,7 +4485,7 @@
     </row>
     <row r="61" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="55">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B61" s="56" t="s">
         <v>203</v>
@@ -4529,7 +4531,7 @@
     </row>
     <row r="62" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B62" s="56" t="s">
         <v>204</v>
@@ -4575,7 +4577,7 @@
     </row>
     <row r="63" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="55">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B63" s="56" t="s">
         <v>205</v>
@@ -4621,7 +4623,7 @@
     </row>
     <row r="64" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="55">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B64" s="56" t="s">
         <v>206</v>
@@ -4667,7 +4669,7 @@
     </row>
     <row r="65" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="55">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B65" s="56" t="s">
         <v>207</v>
@@ -4713,7 +4715,7 @@
     </row>
     <row r="66" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="55">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" s="56" t="s">
         <v>208</v>
@@ -4759,7 +4761,7 @@
     </row>
     <row r="67" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="55">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B67" s="56" t="s">
         <v>209</v>
@@ -4805,7 +4807,7 @@
     </row>
     <row r="68" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="55">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B68" s="56" t="s">
         <v>210</v>
@@ -4851,7 +4853,7 @@
     </row>
     <row r="69" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="55">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B69" s="56" t="s">
         <v>211</v>
@@ -4897,7 +4899,7 @@
     </row>
     <row r="70" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="55">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B70" s="56" t="s">
         <v>212</v>
@@ -4943,7 +4945,7 @@
     </row>
     <row r="71" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="55">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B71" s="56" t="s">
         <v>213</v>
@@ -4993,25 +4995,25 @@
     </row>
     <row r="73" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D73" s="2"/>
-      <c r="Q73" s="88" t="s">
+      <c r="Q73" s="89" t="s">
         <v>254</v>
       </c>
-      <c r="R73" s="88"/>
-      <c r="S73" s="88"/>
-      <c r="T73" s="88"/>
-      <c r="U73" s="88"/>
-      <c r="V73" s="88"/>
+      <c r="R73" s="89"/>
+      <c r="S73" s="89"/>
+      <c r="T73" s="89"/>
+      <c r="U73" s="89"/>
+      <c r="V73" s="89"/>
     </row>
     <row r="74" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D74" s="2"/>
-      <c r="Q74" s="95" t="s">
+      <c r="Q74" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="R74" s="95"/>
-      <c r="S74" s="95"/>
-      <c r="T74" s="95"/>
-      <c r="U74" s="95"/>
-      <c r="V74" s="95"/>
+      <c r="R74" s="96"/>
+      <c r="S74" s="96"/>
+      <c r="T74" s="96"/>
+      <c r="U74" s="96"/>
+      <c r="V74" s="96"/>
     </row>
     <row r="75" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D75" s="2"/>
@@ -5045,25 +5047,25 @@
     </row>
     <row r="81" spans="4:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D81" s="2"/>
-      <c r="Q81" s="87"/>
-      <c r="R81" s="87"/>
-      <c r="T81" s="88" t="s">
+      <c r="Q81" s="88"/>
+      <c r="R81" s="88"/>
+      <c r="T81" s="89" t="s">
         <v>57</v>
       </c>
-      <c r="U81" s="88"/>
-      <c r="V81" s="88"/>
+      <c r="U81" s="89"/>
+      <c r="V81" s="89"/>
     </row>
     <row r="82" spans="4:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D82" s="2"/>
-      <c r="Q82" s="89" t="s">
+      <c r="Q82" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="R82" s="89"/>
-      <c r="T82" s="88" t="s">
+      <c r="R82" s="90"/>
+      <c r="T82" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="U82" s="88"/>
-      <c r="V82" s="88"/>
+      <c r="U82" s="89"/>
+      <c r="V82" s="89"/>
     </row>
     <row r="83" spans="4:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D83" s="2"/>
@@ -8753,8 +8755,8 @@
     <mergeCell ref="Q74:V74"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="36" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8793,28 +8795,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="92"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
+      <c r="Q1" s="92"/>
+      <c r="R1" s="92"/>
+      <c r="S1" s="92"/>
+      <c r="T1" s="93"/>
     </row>
     <row r="2" spans="1:34" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8922,10 +8924,10 @@
       <c r="T7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U7" s="93" t="s">
+      <c r="U7" s="94" t="s">
         <v>26</v>
       </c>
-      <c r="V7" s="94"/>
+      <c r="V7" s="95"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="10"/>
@@ -12108,19 +12110,19 @@
     </row>
     <row r="128" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D128" s="2"/>
-      <c r="Q128" s="96" t="s">
+      <c r="Q128" s="97" t="s">
         <v>40</v>
       </c>
-      <c r="R128" s="97"/>
-      <c r="S128" s="97"/>
+      <c r="R128" s="98"/>
+      <c r="S128" s="98"/>
     </row>
     <row r="129" spans="4:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D129" s="2"/>
-      <c r="Q129" s="98" t="s">
+      <c r="Q129" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R129" s="97"/>
-      <c r="S129" s="97"/>
+      <c r="R129" s="98"/>
+      <c r="S129" s="98"/>
     </row>
     <row r="130" spans="4:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D130" s="2"/>
